--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1426790.781607937</v>
+        <v>-1428689.01371206</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>165.8536139350396</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.4658605917824</v>
+        <v>316.6354691465249</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3.89200034207671</v>
       </c>
       <c r="U4" t="n">
-        <v>199.8011897576367</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>61.71927587612997</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>155.7271124930523</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>85.88160312186113</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>112.1443580694847</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>370.7921873571315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>33.84234274505293</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>77.18057356452994</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.5414218862088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>30.48597889327033</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>20.30888886987905</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.80122484518715</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>30.99251323002502</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0.08639119370517391</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.60084241516359</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>116.6909399905422</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>134.7152698373608</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522962</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373781</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463131</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>837.1179892781315</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781315</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
         <v>471.9067899221776</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2298.414010898199</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2298.414010898199</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1967.351123554628</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1967.351123554628</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X2" t="n">
-        <v>1593.885365293549</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y2" t="n">
-        <v>1223.717829342253</v>
+        <v>1638.455051716319</v>
       </c>
     </row>
     <row r="3">
@@ -4407,10 +4407,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.7460229006679</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="C4" t="n">
-        <v>348.7460229006679</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942404</v>
+        <v>576.0510121637733</v>
       </c>
       <c r="U4" t="n">
-        <v>348.7460229006679</v>
+        <v>576.0510121637733</v>
       </c>
       <c r="V4" t="n">
-        <v>348.7460229006679</v>
+        <v>576.0510121637733</v>
       </c>
       <c r="W4" t="n">
-        <v>348.7460229006679</v>
+        <v>576.0510121637733</v>
       </c>
       <c r="X4" t="n">
-        <v>348.7460229006679</v>
+        <v>576.0510121637733</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.7460229006679</v>
+        <v>576.0510121637733</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1307.111989013772</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="C5" t="n">
-        <v>938.1494720733608</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="D5" t="n">
-        <v>938.1494720733608</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>552.3612194751165</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.251320989584</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1307.111989013772</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="6">
@@ -4626,43 +4626,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.8087152951862</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C7" t="n">
-        <v>290.8087152951862</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="D7" t="n">
-        <v>140.6920758828504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>140.6920758828504</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951862</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951862</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X7" t="n">
-        <v>290.8087152951862</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.8087152951862</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.00952757579</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2583.871961655107</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2365.237294627169</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2111.475509265261</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="W8" t="n">
-        <v>1936.146930626913</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X8" t="n">
-        <v>1936.146930626913</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.609367639912</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4890,40 +4890,40 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810045</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810045</v>
+        <v>88.12716641132701</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810045</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810045</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810045</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,19 +5121,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1722.015429253976</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.223678370532</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="C13" t="n">
-        <v>394.223678370532</v>
+        <v>640.3591753684184</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>490.2425359560826</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>490.2425359560826</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>343.3525884581722</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>175.1772667779929</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>874.9271131227918</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>874.9271131227918</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858311</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="X13" t="n">
-        <v>585.5099430858311</v>
+        <v>809.2953582963253</v>
       </c>
       <c r="Y13" t="n">
-        <v>575.8721432007717</v>
+        <v>809.2953582963253</v>
       </c>
     </row>
     <row r="14">
@@ -5255,46 +5255,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,19 +5355,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.6108700904385</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="C16" t="n">
-        <v>554.6108700904385</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>229.2657119998323</v>
       </c>
       <c r="G16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273991</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>554.6108700904385</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>554.6108700904385</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.6108700904385</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5595,25 +5595,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>333.8182909469084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>333.8182909469084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>333.8182909469084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>185.9051973645153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>185.9051973645153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>185.9051973645153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>185.9051973645153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273991</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>554.6108700904385</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>333.8182909469084</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>462.7283310300503</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>581.2185435662825</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C22" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1356.535598200511</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1132.750182990017</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.712528333286</v>
+        <v>1132.750182990017</v>
       </c>
       <c r="V22" t="n">
-        <v>1098.625264501261</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="W22" t="n">
-        <v>809.2080944642998</v>
+        <v>878.0656947841297</v>
       </c>
       <c r="X22" t="n">
-        <v>581.2185435662825</v>
+        <v>650.0761438861124</v>
       </c>
       <c r="Y22" t="n">
-        <v>581.2185435662825</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>638.3691419079755</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300437</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347409</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141522</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W25" t="n">
-        <v>1020.446367141522</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X25" t="n">
-        <v>792.4568162435047</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y25" t="n">
-        <v>571.6642370999746</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,61 +6212,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823768</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514066</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>488.2756279992583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>735.0407559057226</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298184</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119729</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333287</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333287</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>1098.712528333287</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>962.6364981945386</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.8439190510085</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701563</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766206</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222968</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504521</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6634,37 +6634,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2103.010087623274</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103124</v>
@@ -6853,10 +6853,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254956</v>
@@ -6868,7 +6868,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7406,22 +7406,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7433,28 +7433,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1124.115218311523</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1453.977845975555</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504514</v>
@@ -7564,19 +7564,19 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7594,13 +7594,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3340.964766294737</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>3973.880983602625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>38.8600230194989</v>
+        <v>253.7371603504752</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,13 +9012,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>29.47535963978225</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9243,28 +9243,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>176.7176547498455</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>104.8749102765736</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>202.5230052237928</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119818</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>85.30006332127806</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>96.03744927814563</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10428,28 +10428,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>230.7151863772039</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>159.012100313524</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>306.1147370139953</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>23.33088694453191</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.77207806427116</v>
+        <v>69.60246950952865</v>
       </c>
     </row>
     <row r="3">
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>86.480684484341</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>71.73325480300619</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.043231465886</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>118.129494124942</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.1846795934985</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>22.61802061908485</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>166.9282967535782</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.0512521301228</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>169.2311377667737</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>104.8566210678471</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>90.9943855516764</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.267520046882033e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -26314,25 +26314,25 @@
         <v>122046.641203581</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
         <v>123156.2654796424</v>
       </c>
       <c r="E2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213127</v>
       </c>
       <c r="F2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="G2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="H2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="I2" t="n">
-        <v>117308.7179213126</v>
+        <v>117308.7179213125</v>
       </c>
       <c r="J2" t="n">
         <v>117308.7179213126</v>
@@ -26353,7 +26353,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.5121037125</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819118</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26506,7 +26506,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-712190.9371740503</v>
+        <v>-712209.4309119846</v>
       </c>
       <c r="C6" t="n">
-        <v>-125335.6803702914</v>
+        <v>-125335.6803702913</v>
       </c>
       <c r="D6" t="n">
         <v>-125335.6803702914</v>
       </c>
       <c r="E6" t="n">
-        <v>-522013.2520911709</v>
+        <v>-522110.7112171428</v>
       </c>
       <c r="F6" t="n">
-        <v>3146.784385725259</v>
+        <v>3049.325259753037</v>
       </c>
       <c r="G6" t="n">
-        <v>3146.784385725274</v>
+        <v>3049.32525975308</v>
       </c>
       <c r="H6" t="n">
-        <v>3146.784385725259</v>
+        <v>3049.325259753022</v>
       </c>
       <c r="I6" t="n">
-        <v>3146.784385725216</v>
+        <v>3049.325259753022</v>
       </c>
       <c r="J6" t="n">
-        <v>-173276.4348068677</v>
+        <v>-173373.8939328399</v>
       </c>
       <c r="K6" t="n">
-        <v>-73657.74727228659</v>
+        <v>-73657.74727228654</v>
       </c>
       <c r="L6" t="n">
-        <v>-19152.23516857404</v>
+        <v>-19152.23516857401</v>
       </c>
       <c r="M6" t="n">
         <v>-153953.2504024112</v>
       </c>
       <c r="N6" t="n">
-        <v>-19152.23516857403</v>
+        <v>-19152.23516857404</v>
       </c>
       <c r="O6" t="n">
-        <v>-19152.23516857406</v>
+        <v>-19152.23516857404</v>
       </c>
       <c r="P6" t="n">
-        <v>-73657.74727228658</v>
+        <v>-73657.74727228654</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,34 +26738,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>358.5994831277299</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>50.59470642261817</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>221.1431051160076</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>292.963765744553</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>251.1489332486591</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>19.59084822180881</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>59.53944490107011</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>62.27135473948688</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.44575129892206</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>114.7731302731594</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>80.49006577330462</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,43 +33257,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>349.2844000699651</v>
+        <v>564.1615374009414</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>362.6699330377951</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35963,28 +35963,28 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>327.2930933377847</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>354.1326152325981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.556183571462</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415061</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>353.0984438117321</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081097</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560245</v>
+        <v>334.5577682773024</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>378.401151519254</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.556183571462</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,19 +37069,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>437.8086013087286</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>401.6619767334874</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>469.4364773639903</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>639.3093104120081</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
